--- a/Code/Results/Cases/Case_9_50/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_50/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.413110189930819</v>
+        <v>2.341206592850597</v>
       </c>
       <c r="C2">
-        <v>0.4161132762869215</v>
+        <v>0.4260949394478644</v>
       </c>
       <c r="D2">
-        <v>0.05607177840509792</v>
+        <v>0.05894596711083722</v>
       </c>
       <c r="E2">
-        <v>0.08956077693500575</v>
+        <v>0.08447999173999676</v>
       </c>
       <c r="F2">
-        <v>0.4743791769255097</v>
+        <v>0.4496516068863627</v>
       </c>
       <c r="G2">
-        <v>0.3684628899974314</v>
+        <v>0.324752898173827</v>
       </c>
       <c r="H2">
-        <v>0.0001235770797964886</v>
+        <v>0.0001636682250201194</v>
       </c>
       <c r="I2">
-        <v>0.0007047863159530543</v>
+        <v>0.0009079125957809353</v>
       </c>
       <c r="J2">
-        <v>0.2909530956761301</v>
+        <v>0.3196105216072453</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1539580572486123</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06762876390367367</v>
       </c>
       <c r="N2">
-        <v>0.3236217563583352</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8466019697338893</v>
+        <v>0.3310174704215711</v>
       </c>
       <c r="Q2">
-        <v>1.33972070905935</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8653409162771126</v>
+      </c>
+      <c r="S2">
+        <v>1.258219725629232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.102921377568805</v>
+        <v>2.046289565645679</v>
       </c>
       <c r="C3">
-        <v>0.3889519932429408</v>
+        <v>0.3918743837532617</v>
       </c>
       <c r="D3">
-        <v>0.04982786471387612</v>
+        <v>0.05198429741905386</v>
       </c>
       <c r="E3">
-        <v>0.08527568539767039</v>
+        <v>0.08093050537536328</v>
       </c>
       <c r="F3">
-        <v>0.4384358839654254</v>
+        <v>0.417780805810871</v>
       </c>
       <c r="G3">
-        <v>0.3412606881809737</v>
+        <v>0.3016706793021626</v>
       </c>
       <c r="H3">
-        <v>9.802357530119821E-07</v>
+        <v>2.337200817326135E-06</v>
       </c>
       <c r="I3">
-        <v>0.0004330396181848606</v>
+        <v>0.000575662273426758</v>
       </c>
       <c r="J3">
-        <v>0.2820874915393503</v>
+        <v>0.3108657422328704</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1581333388992583</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06426252031918445</v>
       </c>
       <c r="N3">
-        <v>0.2857069234953968</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8467898604669699</v>
+        <v>0.2923647379200816</v>
       </c>
       <c r="Q3">
-        <v>1.263211390041619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8576132501222844</v>
+      </c>
+      <c r="S3">
+        <v>1.194143939094204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.911679528156895</v>
+        <v>1.864120916553873</v>
       </c>
       <c r="C4">
-        <v>0.3723080709280708</v>
+        <v>0.3710191209204936</v>
       </c>
       <c r="D4">
-        <v>0.04599706226277078</v>
+        <v>0.04772401086168543</v>
       </c>
       <c r="E4">
-        <v>0.08260509315319631</v>
+        <v>0.07870708544237637</v>
       </c>
       <c r="F4">
-        <v>0.4167654751116245</v>
+        <v>0.398497489096286</v>
       </c>
       <c r="G4">
-        <v>0.3248691264055594</v>
+        <v>0.2877834081832518</v>
       </c>
       <c r="H4">
-        <v>7.575373697821242E-05</v>
+        <v>3.194286551133629E-05</v>
       </c>
       <c r="I4">
-        <v>0.0004389136717573017</v>
+        <v>0.0005173872557366899</v>
       </c>
       <c r="J4">
-        <v>0.276875192929964</v>
+        <v>0.3055553794956367</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1607652589321198</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06274218330376335</v>
       </c>
       <c r="N4">
-        <v>0.2624425938573864</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8475976039828694</v>
+        <v>0.26866061210265</v>
       </c>
       <c r="Q4">
-        <v>1.217368874558858</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.8536620285880758</v>
+      </c>
+      <c r="S4">
+        <v>1.155572085621387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.832415005252699</v>
+        <v>1.788498321007637</v>
       </c>
       <c r="C5">
-        <v>0.3659478294586336</v>
+        <v>0.3630077873766453</v>
       </c>
       <c r="D5">
-        <v>0.04448120971586889</v>
+        <v>0.04603707357005504</v>
       </c>
       <c r="E5">
-        <v>0.08145105061930558</v>
+        <v>0.07773682540547178</v>
       </c>
       <c r="F5">
-        <v>0.4076555359777672</v>
+        <v>0.3903428164027716</v>
       </c>
       <c r="G5">
-        <v>0.3178796068580496</v>
+        <v>0.2818250958870792</v>
       </c>
       <c r="H5">
-        <v>0.0001425189808452743</v>
+        <v>7.507173771359454E-05</v>
       </c>
       <c r="I5">
-        <v>0.000548544411072438</v>
+        <v>0.0006070160488436116</v>
       </c>
       <c r="J5">
-        <v>0.2746105563239212</v>
+        <v>0.3032076440283404</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1616991422332603</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06218312076772214</v>
       </c>
       <c r="N5">
-        <v>0.253041193264437</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8484663491818338</v>
+        <v>0.2590839553345887</v>
       </c>
       <c r="Q5">
-        <v>1.197734233807751</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.85264579904009</v>
+      </c>
+      <c r="S5">
+        <v>1.13885313896354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.817856166487275</v>
+        <v>1.77456241855819</v>
       </c>
       <c r="C6">
-        <v>0.3654034774454971</v>
+        <v>0.3622335921803455</v>
       </c>
       <c r="D6">
-        <v>0.04428455968250233</v>
+        <v>0.04581360350581321</v>
       </c>
       <c r="E6">
-        <v>0.08119099477332448</v>
+        <v>0.07751043365079724</v>
       </c>
       <c r="F6">
-        <v>0.4056920214337367</v>
+        <v>0.3885486401158502</v>
       </c>
       <c r="G6">
-        <v>0.3162555316382907</v>
+        <v>0.2803932186084239</v>
       </c>
       <c r="H6">
-        <v>0.0001563431484292721</v>
+        <v>8.449671129007186E-05</v>
       </c>
       <c r="I6">
-        <v>0.0006572481738329472</v>
+        <v>0.0007288608643758465</v>
       </c>
       <c r="J6">
-        <v>0.2739977201307013</v>
+        <v>0.3025770016358962</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1616657091354625</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06200531958502964</v>
       </c>
       <c r="N6">
-        <v>0.2515748009182488</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8490762815221373</v>
+        <v>0.2575891391525147</v>
       </c>
       <c r="Q6">
-        <v>1.192995229948053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8529797034212336</v>
+      </c>
+      <c r="S6">
+        <v>1.134643831894664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.906815965730829</v>
+        <v>1.858044497222124</v>
       </c>
       <c r="C7">
-        <v>0.3736249959523263</v>
+        <v>0.3720723186275308</v>
       </c>
       <c r="D7">
-        <v>0.04612745612310931</v>
+        <v>0.04795775635979993</v>
       </c>
       <c r="E7">
-        <v>0.08240461070911209</v>
+        <v>0.07853503245124216</v>
       </c>
       <c r="F7">
-        <v>0.4153946548835776</v>
+        <v>0.3964034943475454</v>
       </c>
       <c r="G7">
-        <v>0.3234957361937063</v>
+        <v>0.2893554879139941</v>
       </c>
       <c r="H7">
-        <v>7.76482000071077E-05</v>
+        <v>3.347540770848312E-05</v>
       </c>
       <c r="I7">
-        <v>0.0006653890121572914</v>
+        <v>0.0007870945668093654</v>
       </c>
       <c r="J7">
-        <v>0.2761887850737921</v>
+        <v>0.3005905625754295</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1600993966716544</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06237510781860323</v>
       </c>
       <c r="N7">
-        <v>0.2625751301008705</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8488679155637513</v>
+        <v>0.2687220400572272</v>
       </c>
       <c r="Q7">
-        <v>1.213018587311126</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8555030966474035</v>
+      </c>
+      <c r="S7">
+        <v>1.148911940228516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.301241856933075</v>
+        <v>2.230319935763021</v>
       </c>
       <c r="C8">
-        <v>0.4086254046299445</v>
+        <v>0.415111086931816</v>
       </c>
       <c r="D8">
-        <v>0.05411988169208115</v>
+        <v>0.05709361004869606</v>
       </c>
       <c r="E8">
-        <v>0.08784762063077522</v>
+        <v>0.08309410462004152</v>
       </c>
       <c r="F8">
-        <v>0.4602437874327876</v>
+        <v>0.4344328907556161</v>
       </c>
       <c r="G8">
-        <v>0.357318935296334</v>
+        <v>0.3247489230866734</v>
       </c>
       <c r="H8">
-        <v>4.787589062482667E-05</v>
+        <v>7.727765207365955E-05</v>
       </c>
       <c r="I8">
-        <v>0.000842285102469198</v>
+        <v>0.001081695361630608</v>
       </c>
       <c r="J8">
-        <v>0.2869802091470604</v>
+        <v>0.301742834120688</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1542580155701678</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06559711815291713</v>
       </c>
       <c r="N8">
-        <v>0.310890868315326</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8482529595132746</v>
+        <v>0.3177981181516003</v>
       </c>
       <c r="Q8">
-        <v>1.307682572820568</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8661199783261324</v>
+      </c>
+      <c r="S8">
+        <v>1.222492489511865</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.075574926264892</v>
+        <v>2.963358458870516</v>
       </c>
       <c r="C9">
-        <v>0.4750902468063742</v>
+        <v>0.4993973673254573</v>
       </c>
       <c r="D9">
-        <v>0.06956357709183436</v>
+        <v>0.07449168320628274</v>
       </c>
       <c r="E9">
-        <v>0.09855333430689939</v>
+        <v>0.09194638734867588</v>
       </c>
       <c r="F9">
-        <v>0.5539022737527546</v>
+        <v>0.5164919643260362</v>
       </c>
       <c r="G9">
-        <v>0.4286710350659746</v>
+        <v>0.388342559981794</v>
       </c>
       <c r="H9">
-        <v>0.001273896863726476</v>
+        <v>0.00126226524525741</v>
       </c>
       <c r="I9">
-        <v>0.002327260900266914</v>
+        <v>0.002491065072456777</v>
       </c>
       <c r="J9">
-        <v>0.3112628433776763</v>
+        <v>0.3208172392066047</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1447837016119848</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07719749346479077</v>
       </c>
       <c r="N9">
-        <v>0.4053967907444758</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8504205182978879</v>
+        <v>0.4141387764249203</v>
       </c>
       <c r="Q9">
-        <v>1.510440486260251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.8890945622082</v>
+      </c>
+      <c r="S9">
+        <v>1.389608777081577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.621542729410635</v>
+        <v>3.471330423830352</v>
       </c>
       <c r="C10">
-        <v>0.5301896906115076</v>
+        <v>0.5659814425530385</v>
       </c>
       <c r="D10">
-        <v>0.0818473940519624</v>
+        <v>0.08887431396771461</v>
       </c>
       <c r="E10">
-        <v>0.1023588329447822</v>
+        <v>0.09481083037707627</v>
       </c>
       <c r="F10">
-        <v>0.6183698545133538</v>
+        <v>0.56806725675915</v>
       </c>
       <c r="G10">
-        <v>0.4760782941291239</v>
+        <v>0.4481399793042158</v>
       </c>
       <c r="H10">
-        <v>0.003131639957094201</v>
+        <v>0.002950562784532096</v>
       </c>
       <c r="I10">
-        <v>0.004525604447101372</v>
+        <v>0.004472449211181839</v>
       </c>
       <c r="J10">
-        <v>0.3269152148508851</v>
+        <v>0.308908802846517</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1359597520426661</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08593649755207267</v>
       </c>
       <c r="N10">
-        <v>0.4560636144637584</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8631744184889811</v>
+        <v>0.4654704719400087</v>
       </c>
       <c r="Q10">
-        <v>1.644152698709519</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.9211459328093667</v>
+      </c>
+      <c r="S10">
+        <v>1.483465433913864</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.707815277046507</v>
+        <v>3.544160105101753</v>
       </c>
       <c r="C11">
-        <v>0.6060027533530103</v>
+        <v>0.6415264052073724</v>
       </c>
       <c r="D11">
-        <v>0.09507017608441259</v>
+        <v>0.1040029613786118</v>
       </c>
       <c r="E11">
-        <v>0.07783108070344724</v>
+        <v>0.07260715776169402</v>
       </c>
       <c r="F11">
-        <v>0.5920952465335745</v>
+        <v>0.535281704315139</v>
       </c>
       <c r="G11">
-        <v>0.4411718950567405</v>
+        <v>0.4543232757791174</v>
       </c>
       <c r="H11">
-        <v>0.02157779833366646</v>
+        <v>0.02133755822471528</v>
       </c>
       <c r="I11">
-        <v>0.005643182471358976</v>
+        <v>0.00556935850196183</v>
       </c>
       <c r="J11">
-        <v>0.3056937458801485</v>
+        <v>0.2476600407177401</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1199994628058239</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07538275596775179</v>
       </c>
       <c r="N11">
-        <v>0.3271958687805636</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9352974918137562</v>
+        <v>0.3338253401347941</v>
       </c>
       <c r="Q11">
-        <v>1.525898805647898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.009469886713532</v>
+      </c>
+      <c r="S11">
+        <v>1.348123377742695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.669437076811107</v>
+        <v>3.507627433410505</v>
       </c>
       <c r="C12">
-        <v>0.6605464696884269</v>
+        <v>0.6934070609700598</v>
       </c>
       <c r="D12">
-        <v>0.1038823773555606</v>
+        <v>0.1135904160202017</v>
       </c>
       <c r="E12">
-        <v>0.06607998328126108</v>
+        <v>0.06255081172085508</v>
       </c>
       <c r="F12">
-        <v>0.5582594297902475</v>
+        <v>0.5016276524649683</v>
       </c>
       <c r="G12">
-        <v>0.4044381661609009</v>
+        <v>0.437323051451969</v>
       </c>
       <c r="H12">
-        <v>0.05998802931986091</v>
+        <v>0.05974557962881732</v>
       </c>
       <c r="I12">
-        <v>0.005720263484313648</v>
+        <v>0.005618116973086451</v>
       </c>
       <c r="J12">
-        <v>0.2856927395167048</v>
+        <v>0.2166645584357383</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1103786804094131</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06604495316945247</v>
       </c>
       <c r="N12">
-        <v>0.2266226345211635</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9978755941456399</v>
+        <v>0.2313093423963579</v>
       </c>
       <c r="Q12">
-        <v>1.40621300582103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.079029955055788</v>
+      </c>
+      <c r="S12">
+        <v>1.231964096113899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.527208091250657</v>
+        <v>3.38264369442004</v>
       </c>
       <c r="C13">
-        <v>0.7034900704294671</v>
+        <v>0.7333431318631369</v>
       </c>
       <c r="D13">
-        <v>0.1099566152435472</v>
+        <v>0.1191861531736151</v>
       </c>
       <c r="E13">
-        <v>0.06303198534127485</v>
+        <v>0.06090773899126312</v>
       </c>
       <c r="F13">
-        <v>0.5146177165204335</v>
+        <v>0.4649020172979306</v>
       </c>
       <c r="G13">
-        <v>0.3621449354392041</v>
+        <v>0.3925975085943776</v>
       </c>
       <c r="H13">
-        <v>0.1153184997227328</v>
+        <v>0.1151191634061348</v>
       </c>
       <c r="I13">
-        <v>0.005305694238336045</v>
+        <v>0.005258448891861889</v>
       </c>
       <c r="J13">
-        <v>0.2644060387376896</v>
+        <v>0.2072626708327974</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1039399177285745</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0569752935062251</v>
       </c>
       <c r="N13">
-        <v>0.1428012567394674</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.057511941641678</v>
+        <v>0.1460760310627336</v>
       </c>
       <c r="Q13">
-        <v>1.271965077342344</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.136196846498677</v>
+      </c>
+      <c r="S13">
+        <v>1.121586563668643</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.380135353658716</v>
+        <v>3.254164680045051</v>
       </c>
       <c r="C14">
-        <v>0.7290563032708803</v>
+        <v>0.7566987534586644</v>
       </c>
       <c r="D14">
-        <v>0.1130327839031793</v>
+        <v>0.1213283414534914</v>
       </c>
       <c r="E14">
-        <v>0.06602644564558169</v>
+        <v>0.06476915224204571</v>
       </c>
       <c r="F14">
-        <v>0.4795931449155333</v>
+        <v>0.4373902058338999</v>
       </c>
       <c r="G14">
-        <v>0.330077722576803</v>
+        <v>0.350272135583964</v>
       </c>
       <c r="H14">
-        <v>0.1643251928080076</v>
+        <v>0.1641706848400304</v>
       </c>
       <c r="I14">
-        <v>0.004889167255990756</v>
+        <v>0.004927087569615018</v>
       </c>
       <c r="J14">
-        <v>0.2489158058924659</v>
+        <v>0.2085531458300522</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.100596523448246</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.0508630660562801</v>
       </c>
       <c r="N14">
-        <v>0.09480418928271206</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.09869143575402</v>
+        <v>0.09728705503182766</v>
       </c>
       <c r="Q14">
-        <v>1.171499064743216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.170946971549228</v>
+      </c>
+      <c r="S14">
+        <v>1.045532452598451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.321210562046929</v>
+        <v>3.202644349483023</v>
       </c>
       <c r="C15">
-        <v>0.7329136398126082</v>
+        <v>0.7600838458396026</v>
       </c>
       <c r="D15">
-        <v>0.1131941740891307</v>
+        <v>0.1210113945293187</v>
       </c>
       <c r="E15">
-        <v>0.06737227738981666</v>
+        <v>0.06633183444744795</v>
       </c>
       <c r="F15">
-        <v>0.4685995398479648</v>
+        <v>0.4294055042681464</v>
       </c>
       <c r="G15">
-        <v>0.3206308200114592</v>
+        <v>0.3348916512733098</v>
       </c>
       <c r="H15">
-        <v>0.176686501644383</v>
+        <v>0.1765515673069444</v>
       </c>
       <c r="I15">
-        <v>0.004791674529784906</v>
+        <v>0.00488805809471593</v>
       </c>
       <c r="J15">
-        <v>0.2446548414427667</v>
+        <v>0.2121608367116892</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1001308628056528</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.04929063822140733</v>
       </c>
       <c r="N15">
-        <v>0.08432704028064109</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.107824738997749</v>
+        <v>0.08666335667373204</v>
       </c>
       <c r="Q15">
-        <v>1.142518747401937</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.176616982555387</v>
+      </c>
+      <c r="S15">
+        <v>1.025944275981857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.116478556407628</v>
+        <v>3.022405698142052</v>
       </c>
       <c r="C16">
-        <v>0.6996689965454266</v>
+        <v>0.7267538456646605</v>
       </c>
       <c r="D16">
-        <v>0.1065241596773916</v>
+        <v>0.1122785638663686</v>
       </c>
       <c r="E16">
-        <v>0.0662740028684814</v>
+        <v>0.06536855099133021</v>
       </c>
       <c r="F16">
-        <v>0.449293408715242</v>
+        <v>0.4201031283243566</v>
       </c>
       <c r="G16">
-        <v>0.3085037206714105</v>
+        <v>0.2947748907938035</v>
       </c>
       <c r="H16">
-        <v>0.1632154371195327</v>
+        <v>0.1631587544126205</v>
       </c>
       <c r="I16">
-        <v>0.004006687636917583</v>
+        <v>0.004259706883729564</v>
       </c>
       <c r="J16">
-        <v>0.2419337643508754</v>
+        <v>0.2433035879212824</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1040162059603595</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04886178074806935</v>
       </c>
       <c r="N16">
-        <v>0.08219413695817934</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.08714615283067</v>
+        <v>0.08485660471237821</v>
       </c>
       <c r="Q16">
-        <v>1.110927738817509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.140171275151062</v>
+      </c>
+      <c r="S16">
+        <v>1.0238148552925</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.037159565082959</v>
+        <v>2.950028289948023</v>
       </c>
       <c r="C17">
-        <v>0.6606190561399217</v>
+        <v>0.6879703276106568</v>
       </c>
       <c r="D17">
-        <v>0.09979185814780323</v>
+        <v>0.1047389663906273</v>
       </c>
       <c r="E17">
-        <v>0.06300144291020882</v>
+        <v>0.06168588042788592</v>
       </c>
       <c r="F17">
-        <v>0.4530297203436291</v>
+        <v>0.4267031176639975</v>
       </c>
       <c r="G17">
-        <v>0.3160761345858702</v>
+        <v>0.28957596674217</v>
       </c>
       <c r="H17">
-        <v>0.1250606068006022</v>
+        <v>0.1250338329545997</v>
       </c>
       <c r="I17">
-        <v>0.003661752317715816</v>
+        <v>0.003983687381325929</v>
       </c>
       <c r="J17">
-        <v>0.2480377033839716</v>
+        <v>0.2642580980219336</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.109060873518029</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05146484945442076</v>
       </c>
       <c r="N17">
-        <v>0.1039059764459509</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.049732459151059</v>
+        <v>0.1072418753521234</v>
       </c>
       <c r="Q17">
-        <v>1.139646961095025</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.096075450883149</v>
+      </c>
+      <c r="S17">
+        <v>1.060141868109568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.059299246775254</v>
+        <v>2.968001450005033</v>
       </c>
       <c r="C18">
-        <v>0.612408912407318</v>
+        <v>0.640932013508035</v>
       </c>
       <c r="D18">
-        <v>0.09227394697044389</v>
+        <v>0.09706368884622663</v>
       </c>
       <c r="E18">
-        <v>0.06208128937974899</v>
+        <v>0.05972999983769367</v>
       </c>
       <c r="F18">
-        <v>0.4780658076839686</v>
+        <v>0.450357899963052</v>
       </c>
       <c r="G18">
-        <v>0.3428648836234629</v>
+        <v>0.3081950568355438</v>
       </c>
       <c r="H18">
-        <v>0.0721910547717215</v>
+        <v>0.07217109818735423</v>
       </c>
       <c r="I18">
-        <v>0.003351846496345345</v>
+        <v>0.003643343679930133</v>
       </c>
       <c r="J18">
-        <v>0.2630626678178913</v>
+        <v>0.2845554997062649</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1165047361305387</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05754402429257333</v>
       </c>
       <c r="N18">
-        <v>0.158284530924945</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.994786755296019</v>
+        <v>0.1628500407152274</v>
       </c>
       <c r="Q18">
-        <v>1.227834501103928</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.039108892299595</v>
+      </c>
+      <c r="S18">
+        <v>1.142596508492403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.154377168151825</v>
+        <v>3.051565730484526</v>
       </c>
       <c r="C19">
-        <v>0.5664777852296652</v>
+        <v>0.5969475675449871</v>
       </c>
       <c r="D19">
-        <v>0.08526837486441252</v>
+        <v>0.09027262854704787</v>
       </c>
       <c r="E19">
-        <v>0.06989771906358033</v>
+        <v>0.06589662680542219</v>
       </c>
       <c r="F19">
-        <v>0.5168722439028741</v>
+        <v>0.4850323018768208</v>
       </c>
       <c r="G19">
-        <v>0.3821792689098373</v>
+        <v>0.3411617738734236</v>
       </c>
       <c r="H19">
-        <v>0.02727257126959159</v>
+        <v>0.0272421192207517</v>
       </c>
       <c r="I19">
-        <v>0.003600905628888817</v>
+        <v>0.003900976408313106</v>
       </c>
       <c r="J19">
-        <v>0.2835337468493009</v>
+        <v>0.304698886097313</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.125360614665059</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06606154524590124</v>
       </c>
       <c r="N19">
-        <v>0.2503167944109776</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9370569640291393</v>
+        <v>0.2566569515673081</v>
       </c>
       <c r="Q19">
-        <v>1.354027406489649</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.9819646348225319</v>
+      </c>
+      <c r="S19">
+        <v>1.25424387683708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.465494453271504</v>
+        <v>3.330701958103816</v>
       </c>
       <c r="C20">
-        <v>0.5205398331262643</v>
+        <v>0.5551417553823512</v>
       </c>
       <c r="D20">
-        <v>0.07913906092272072</v>
+        <v>0.08524003545294789</v>
       </c>
       <c r="E20">
-        <v>0.1006505236638855</v>
+        <v>0.09333397377850439</v>
       </c>
       <c r="F20">
-        <v>0.5970847037241427</v>
+        <v>0.5532061861446635</v>
       </c>
       <c r="G20">
-        <v>0.4592150714157555</v>
+        <v>0.4175009874302731</v>
       </c>
       <c r="H20">
-        <v>0.002542074499485736</v>
+        <v>0.002425119436341827</v>
       </c>
       <c r="I20">
-        <v>0.004570360930439499</v>
+        <v>0.004763061270996793</v>
       </c>
       <c r="J20">
-        <v>0.3205457103271101</v>
+        <v>0.3242598742222498</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1375065620175384</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.08273147651988921</v>
       </c>
       <c r="N20">
-        <v>0.4427643266717496</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8642595096912231</v>
+        <v>0.4522428350722691</v>
       </c>
       <c r="Q20">
-        <v>1.594954144616963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.915512694092314</v>
+      </c>
+      <c r="S20">
+        <v>1.454625924512982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.913324129988723</v>
+        <v>3.719341746690532</v>
       </c>
       <c r="C21">
-        <v>0.554133722259877</v>
+        <v>0.5906691547477863</v>
       </c>
       <c r="D21">
-        <v>0.08724853300316227</v>
+        <v>0.09711770194957836</v>
       </c>
       <c r="E21">
-        <v>0.1095411713947598</v>
+        <v>0.1013835292785981</v>
       </c>
       <c r="F21">
-        <v>0.6580360117623343</v>
+        <v>0.5880413542366654</v>
       </c>
       <c r="G21">
-        <v>0.5071383174128385</v>
+        <v>0.5331492180577868</v>
       </c>
       <c r="H21">
-        <v>0.004240885941130479</v>
+        <v>0.003879232524719445</v>
       </c>
       <c r="I21">
-        <v>0.006563029659757191</v>
+        <v>0.006406008877736014</v>
       </c>
       <c r="J21">
-        <v>0.3384529939984589</v>
+        <v>0.252278378441801</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1311755652512545</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.09016745618484734</v>
       </c>
       <c r="N21">
-        <v>0.511295817211618</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.8643330160352036</v>
+        <v>0.5203972440375253</v>
       </c>
       <c r="Q21">
-        <v>1.734370919133539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.9417416980965498</v>
+      </c>
+      <c r="S21">
+        <v>1.51119715531766</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.20167746976432</v>
+        <v>3.966820013703227</v>
       </c>
       <c r="C22">
-        <v>0.5769062499094275</v>
+        <v>0.6139730746271539</v>
       </c>
       <c r="D22">
-        <v>0.09277335168649614</v>
+        <v>0.1053283564338017</v>
       </c>
       <c r="E22">
-        <v>0.1136303005309074</v>
+        <v>0.1051427716635978</v>
       </c>
       <c r="F22">
-        <v>0.6969245006904288</v>
+        <v>0.6086272933092474</v>
       </c>
       <c r="G22">
-        <v>0.5373672605142445</v>
+        <v>0.6172458707252275</v>
       </c>
       <c r="H22">
-        <v>0.005579788091106319</v>
+        <v>0.005016109747847164</v>
       </c>
       <c r="I22">
-        <v>0.007801225252856092</v>
+        <v>0.007290581683078834</v>
       </c>
       <c r="J22">
-        <v>0.3496663888008129</v>
+        <v>0.209490938643242</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1268029325107811</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.09489382568885674</v>
       </c>
       <c r="N22">
-        <v>0.546064278801893</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8666671983136212</v>
+        <v>0.554628218574436</v>
       </c>
       <c r="Q22">
-        <v>1.822139502360955</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.9624874100579177</v>
+      </c>
+      <c r="S22">
+        <v>1.541094581864371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.052468214945691</v>
+        <v>3.84305538486268</v>
       </c>
       <c r="C23">
-        <v>0.5629756550419813</v>
+        <v>0.6005616133980141</v>
       </c>
       <c r="D23">
-        <v>0.08963682923690186</v>
+        <v>0.1004404826648795</v>
       </c>
       <c r="E23">
-        <v>0.1116639201486045</v>
+        <v>0.103273828578228</v>
       </c>
       <c r="F23">
-        <v>0.6775938471429157</v>
+        <v>0.6010646356964031</v>
       </c>
       <c r="G23">
-        <v>0.5227039217922851</v>
+        <v>0.5646480974757395</v>
       </c>
       <c r="H23">
-        <v>0.004853307328412104</v>
+        <v>0.004407885936482558</v>
       </c>
       <c r="I23">
-        <v>0.006851374836286617</v>
+        <v>0.006480147249633639</v>
       </c>
       <c r="J23">
-        <v>0.3444210837632369</v>
+        <v>0.2397235996845879</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1297746859006104</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.09318087559366717</v>
       </c>
       <c r="N23">
-        <v>0.5271798332152429</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.863630699560602</v>
+        <v>0.5362212282639973</v>
       </c>
       <c r="Q23">
-        <v>1.779961897435328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.9477097973597921</v>
+      </c>
+      <c r="S23">
+        <v>1.536064448604236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.479234234266471</v>
+        <v>3.343366887070147</v>
       </c>
       <c r="C24">
-        <v>0.5132325373496087</v>
+        <v>0.5475325300707823</v>
       </c>
       <c r="D24">
-        <v>0.07808708365583072</v>
+        <v>0.08416118798757566</v>
       </c>
       <c r="E24">
-        <v>0.1038457196560127</v>
+        <v>0.09626404050933779</v>
       </c>
       <c r="F24">
-        <v>0.6033330695608043</v>
+        <v>0.5590209913357214</v>
       </c>
       <c r="G24">
-        <v>0.4658385471052782</v>
+        <v>0.422917157743413</v>
       </c>
       <c r="H24">
-        <v>0.002508952517534024</v>
+        <v>0.002389036377162035</v>
       </c>
       <c r="I24">
-        <v>0.004141078977898616</v>
+        <v>0.004230783535763116</v>
       </c>
       <c r="J24">
-        <v>0.3239825698355219</v>
+        <v>0.3281086118565923</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1393228661589738</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.08446634456491253</v>
       </c>
       <c r="N24">
-        <v>0.4563659476044535</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8564654336275765</v>
+        <v>0.4660788496649388</v>
       </c>
       <c r="Q24">
-        <v>1.616187945742951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.9070986560859922</v>
+      </c>
+      <c r="S24">
+        <v>1.474155605904571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.859685208588303</v>
+        <v>2.761021639135151</v>
       </c>
       <c r="C25">
-        <v>0.4596831326296495</v>
+        <v>0.4798672660129171</v>
       </c>
       <c r="D25">
-        <v>0.06565772414777626</v>
+        <v>0.06990784253182625</v>
       </c>
       <c r="E25">
-        <v>0.09535565111220379</v>
+        <v>0.08924930581636126</v>
       </c>
       <c r="F25">
-        <v>0.5258813499458981</v>
+        <v>0.4929130503521506</v>
       </c>
       <c r="G25">
-        <v>0.4067146955789127</v>
+        <v>0.3644337515354295</v>
       </c>
       <c r="H25">
-        <v>0.0007859236187970353</v>
+        <v>0.0008094367577705652</v>
       </c>
       <c r="I25">
-        <v>0.002135774723281081</v>
+        <v>0.002436582654453012</v>
       </c>
       <c r="J25">
-        <v>0.3032868333494037</v>
+        <v>0.3203826693123943</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1467726834383534</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.07312694994626767</v>
       </c>
       <c r="N25">
-        <v>0.3802695196561956</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8516659892649585</v>
+        <v>0.3886118806059784</v>
       </c>
       <c r="Q25">
-        <v>1.447024106956434</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8841000966679644</v>
+      </c>
+      <c r="S25">
+        <v>1.340107734902233</v>
       </c>
     </row>
   </sheetData>
